--- a/dataset_excel/Energy-Bills-mar-25.xlsx
+++ b/dataset_excel/Energy-Bills-mar-25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INNOVO Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hriday Amle\OneDrive\Desktop\carbon emmision\Carbon-Emission-23\dataset_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE242E8-FD3F-47DC-9EA9-9803C479AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8092758F-F878-4C1D-9EA3-7433C8EAE625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1092C6CC-FDCA-425F-9ADB-447CC44CB185}"/>
   </bookViews>
@@ -56,6 +56,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,13 +101,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -423,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F50F40E-CF58-4FFA-BF5A-3C734947F339}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,593 +456,593 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>45717</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>1400</v>
       </c>
-      <c r="C2" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D2" s="2">
         <v>168</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>560</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>45718</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1450</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D3" s="2">
         <v>174</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>580</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>45719</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1500</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D4" s="2">
         <v>180</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>600</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>45720</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1600</v>
       </c>
-      <c r="C5" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D5" s="2">
         <v>192</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>640</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>45721</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>1550</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D6" s="2">
         <v>186</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>620</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>45722</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1400</v>
       </c>
-      <c r="C7" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="2">
         <v>168</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>560</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>45723</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1350</v>
       </c>
-      <c r="C8" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D8" s="2">
         <v>162</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>540</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>45724</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1300</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D9" s="2">
         <v>156</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>520</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>45725</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1200</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D10" s="2">
         <v>144</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>480</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>45726</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1250</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D11" s="2">
         <v>150</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>500</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>45727</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>1300</v>
       </c>
-      <c r="C12" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D12" s="2">
         <v>156</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>520</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>45728</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>1400</v>
       </c>
-      <c r="C13" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D13" s="2">
         <v>168</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>560</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>45729</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>1450</v>
       </c>
-      <c r="C14" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="2">
         <v>174</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>580</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>45730</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>1500</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D15" s="2">
         <v>180</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>600</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>45731</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1550</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D16" s="2">
         <v>186</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>620</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>45732</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1600</v>
       </c>
-      <c r="C17" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D17" s="2">
         <v>192</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>640</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>45733</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>1450</v>
       </c>
-      <c r="C18" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D18" s="2">
         <v>174</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>580</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>45734</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1400</v>
       </c>
-      <c r="C19" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D19" s="2">
         <v>168</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>560</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>45735</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>1300</v>
       </c>
-      <c r="C20" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D20" s="2">
         <v>156</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>520</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>45736</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>1250</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D21" s="2">
         <v>150</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>500</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>45737</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1200</v>
       </c>
-      <c r="C22" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D22" s="2">
         <v>144</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>480</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>45738</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1300</v>
       </c>
-      <c r="C23" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D23" s="2">
         <v>156</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>520</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>45739</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>1400</v>
       </c>
-      <c r="C24" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D24" s="2">
         <v>168</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>560</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>45740</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>1450</v>
       </c>
-      <c r="C25" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D25" s="2">
         <v>174</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>580</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>45741</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>1500</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D26" s="2">
         <v>180</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>600</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>45742</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>1550</v>
       </c>
-      <c r="C27" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D27" s="2">
         <v>186</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>620</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>45743</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1600</v>
       </c>
-      <c r="C28" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D28" s="2">
         <v>192</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>640</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>45744</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>1450</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D29" s="2">
         <v>174</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>580</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>45745</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>1400</v>
       </c>
-      <c r="C30" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D30" s="2">
         <v>168</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>560</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>45746</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>1300</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D31" s="2">
         <v>156</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>520</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>45747</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>1250</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="D32" s="2">
         <v>150</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>500</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
